--- a/resources/Graphics.xlsx
+++ b/resources/Graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPP\Alg_Lab2\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC17BE8-B75D-4D85-A2CC-ED8C1070BD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985AD7A-C678-454F-8395-1EB27ED1E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBBB9990-F35C-4523-832E-6C9D4EBCCC63}"/>
   </bookViews>
@@ -164,25 +164,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -241,6 +241,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36668948221309905"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -272,15 +280,33 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14452643959705824"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.84405572353910685"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Alg 2</c:v>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -296,42 +322,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>19800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>181600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>425200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>759200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1728600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Лист1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -365,11 +355,47 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1109000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8655400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64042400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>561773400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5064114200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F130-4499-B7EC-1CA8FA815D69}"/>
+              <c16:uniqueId val="{00000000-4024-41DD-99B6-4E6D403DDF01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -377,7 +403,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Alg 3</c:v>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -393,6 +427,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>Лист1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Лист1!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -426,47 +496,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F130-4499-B7EC-1CA8FA815D69}"/>
+              <c16:uniqueId val="{00000001-4024-41DD-99B6-4E6D403DDF01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,11 +513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1058075344"/>
-        <c:axId val="1058070544"/>
+        <c:axId val="1368899728"/>
+        <c:axId val="1368926272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1058075344"/>
+        <c:axId val="1368899728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,11 +544,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ns)</a:t>
+                  <a:t>Num rects</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -586,7 +616,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058070544"/>
+        <c:crossAx val="1368926272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,8 +624,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058070544"/>
+        <c:axId val="1368926272"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -635,8 +666,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Num rects</a:t>
+                  <a:t>Time (ns)</a:t>
                 </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -685,7 +717,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="790" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -700,7 +732,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058075344"/>
+        <c:crossAx val="1368899728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,7 +745,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -744,7 +776,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -822,12 +854,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Answers</a:t>
+              <a:t>Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> answer</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40384406761174119"/>
+          <c:y val="2.7864514102479247E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -861,13 +905,21 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Alg 2</c:v>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -883,42 +935,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$K$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5592800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7605600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9478400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12307800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14942400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19770600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24866000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28148800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33364000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Лист1!$K$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -952,11 +968,47 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4723000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6212600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7677800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10404400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12529600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15313800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17672400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21118800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24094000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-060E-474C-A7B5-4F2B7DD48498}"/>
+              <c16:uniqueId val="{00000000-217D-4409-B0B4-F69536EC75B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -964,7 +1016,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Alg 3</c:v>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -980,6 +1040,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>Лист1!$K$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Лист1!$K$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1013,60 +1109,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$K$2:$S$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-060E-474C-A7B5-4F2B7DD48498}"/>
+              <c16:uniqueId val="{00000001-217D-4409-B0B4-F69536EC75B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Alg 1</c:v>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1077,42 +1145,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$K$5:$S$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5592800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7605600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9478400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12307800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14942400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19770600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24866000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28148800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33364000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Лист1!$K$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1146,11 +1178,47 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3679400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6656000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9982000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18903600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29468600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54604000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105030000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203707800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398620000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-060E-474C-A7B5-4F2B7DD48498}"/>
+              <c16:uniqueId val="{00000003-217D-4409-B0B4-F69536EC75B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1163,11 +1231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1058075344"/>
-        <c:axId val="1058070544"/>
+        <c:axId val="1723227808"/>
+        <c:axId val="1723230208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1058075344"/>
+        <c:axId val="1723227808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,11 +1262,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ns)</a:t>
+                  <a:t>Num rects</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -1270,7 +1334,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058070544"/>
+        <c:crossAx val="1723230208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,8 +1342,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1058070544"/>
+        <c:axId val="1723230208"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1319,8 +1384,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Num rects</a:t>
+                  <a:t>Time (ns)</a:t>
                 </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1384,7 +1450,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058075344"/>
+        <c:crossAx val="1723227808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,7 +1463,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,7 +1494,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2588,22 +2654,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360293</xdr:colOff>
+      <xdr:colOff>491288</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>131206</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5115</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>659230</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>16906</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6660AE1A-088C-851A-40A5-B648E010DECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E01FA2-591C-1BF0-005D-9B894958F424}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,29 +2689,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:rowOff>155684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>208039</xdr:colOff>
+      <xdr:colOff>676602</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>26505</xdr:rowOff>
+      <xdr:rowOff>32845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EAB355-748C-4E19-9177-EF17A520F55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8224900F-0DC2-15CC-867C-97C2C5393CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2961,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA350C22-3E76-40EA-88FC-C6B3758705DA}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,85 +3038,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>16</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>32</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>64</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>128</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>256</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>4</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="5">
         <v>8</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="5">
         <v>16</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="5">
         <v>32</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="5">
         <v>64</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="5">
         <v>128</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="5">
         <v>256</v>
       </c>
     </row>
